--- a/xlsx/_wiki_黄潭镇_intext.xlsx
+++ b/xlsx/_wiki_黄潭镇_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>黄潭镇</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -396,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,29 +510,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_黄潭镇_intext.xlsx
+++ b/xlsx/_wiki_黄潭镇_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>黄潭镇</t>
   </si>
@@ -23,25 +23,16 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%BD%AD%E9%95%87</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%BD%AD%E9%95%87_(%E5%B0%86%E4%B9%90%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%BD%AD%E9%95%87_(%E5%B0%86%E4%B9%90%E5%8E%BF)</t>
   </si>
   <si>
     <t>黄潭镇 (将乐县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%BD%AD%E9%95%87_(%E5%A4%A9%E9%97%A8%E5%B8%82)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%BD%AD%E9%95%87_(%E5%A4%A9%E9%97%A8%E5%B8%82)</t>
   </si>
   <si>
     <t>黄潭镇 (天门市)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%BD%AD%E9%95%87</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -390,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,52 +455,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
